--- a/biology/Botanique/Tristemma_littorale/Tristemma_littorale.xlsx
+++ b/biology/Botanique/Tristemma_littorale/Tristemma_littorale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tristemma littorale est une espèce de plantes de la famille des Melastomataceae et du genre Tristemma, présente en Afrique tropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbrisseau pouvant atteindre 1 m de hauteur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbrisseau pouvant atteindre 1 m de hauteur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Assez rare, l'espèce a été observée sur une aire fragmentée : au sud-ouest du Cameroun, au Gabon, au sud-est du Nigeria, en Guinée équatoriale sur l'île de Bioko[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assez rare, l'espèce a été observée sur une aire fragmentée : au sud-ouest du Cameroun, au Gabon, au sud-est du Nigeria, en Guinée équatoriale sur l'île de Bioko.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Hbaitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se développe dans les forêts littorales et biafréennes de basse altitude[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se développe dans les forêts littorales et biafréennes de basse altitude.
 </t>
         </is>
       </c>
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,15 +650,17 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (15 juin 2020)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (15 juin 2020) :
 sous-espèce Tristemma littorale subsp. biafranum
 sous-espèce Tristemma littorale subsp. littorale
 variété Tristemma littorale var. insulare
-Selon The Plant List            (15 juin 2020)[1] :
+Selon The Plant List            (15 juin 2020) :
 sous-espèce Tristemma littorale subsp. biafranum Jacq.-Fél.
-Selon Tropicos                                           (15 juin 2020)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (15 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Tristemma littorale subsp. biafranum Jacq.-Fél.
 sous-espèce Tristemma littorale subsp. littorale</t>
         </is>
